--- a/自动化学习进程表.xlsx
+++ b/自动化学习进程表.xlsx
@@ -9,15 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="6090" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="6090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="靠谱网站收集" sheetId="7" r:id="rId5"/>
-    <sheet name="TipS" sheetId="8" r:id="rId6"/>
+    <sheet name="靠谱网站收集" sheetId="7" r:id="rId4"/>
+    <sheet name="Tips" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,36 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>自动化面试计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、测试网站，选择一些接近公司系统的网站进行测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、准备简历，在参考他人简历的过程中完善需要学习的知识点，例如postman,sql语句等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、学习英语，着重强化口语和听力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、搜罗自动化面试题，模拟面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、找一些小公司面试，积累面试经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、图书馆学习自动化测试宏观理论知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>postman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,14 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://blog.csdn.net/butterfly5211314/article/details/82755600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +232,54 @@
   </si>
   <si>
     <t>鼠标移开就会在页面消失的元素，右键点击“检查”查看代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写自动化测试用例的过程中要有简化代码的意识，重复代码可以提取成方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高用例通过率的基本方法是在每个页面跳转后先写上wait.until()语句，确保页面加载完成能够找到对应元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、项目实战，选择一些接近公司系统的网站进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例的最后一步需要将页面还原成初始状态，避免重复跑用例失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading加载太快可以先调整网速再操作具体测试步骤：F12选择Network-选择网络模式（Slow 3G）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、图书馆学习自动化测试宏观理论知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、准备简历，在参考他人简历的过程中完善需要学习的知识点，例如postman,sql语句等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、学习英语，着重强化口语和听力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、搜罗自动化面试题，模拟面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、找一些小公司面试，积累面试经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、基础知识回顾，定期进行考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在定位关键元素的代码后面添加打印信息的代码，跑用例不通过可以根据打印的log快速判断出错的位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,17 +375,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,13 +405,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -677,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -691,93 +734,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+      <c r="A2" s="12"/>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
+      <c r="A3" s="12"/>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
+      <c r="A4" s="12"/>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
+      <c r="A5" s="12"/>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
+      <c r="A6" s="12"/>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12"/>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7">
-      <c r="D17" s="1"/>
-      <c r="G17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="1"/>
+      <c r="G18">
         <v>1991</v>
       </c>
     </row>
-    <row r="18" spans="4:7">
-      <c r="G18">
+    <row r="19" spans="4:7">
+      <c r="G19">
         <v>1992</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A1:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -795,179 +844,179 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1991</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1991</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1991</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1.2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1991</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1991</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1.3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1991</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1991</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1.4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1991</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>1992</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2.1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1992</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>2.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>1992</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1992</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>1992</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1992</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>1992</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>2.4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1992</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>1991</v>
       </c>
       <c r="B15">
@@ -984,7 +1033,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>1991</v>
       </c>
       <c r="B16">
@@ -1001,7 +1050,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>1991</v>
       </c>
       <c r="B17">
@@ -1018,7 +1067,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>1991</v>
       </c>
       <c r="B18">
@@ -1035,7 +1084,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>1992</v>
       </c>
       <c r="B19">
@@ -1052,7 +1101,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12">
+      <c r="A20" s="10">
         <v>1992</v>
       </c>
       <c r="B20">
@@ -1069,7 +1118,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12">
+      <c r="A21" s="10">
         <v>1992</v>
       </c>
       <c r="B21">
@@ -1086,7 +1135,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>1992</v>
       </c>
       <c r="B22">
@@ -1127,403 +1176,403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18">
-      <c r="A1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="M1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="18">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="M1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="18">
-      <c r="A2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9">
+        <v>32874</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="M3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9">
+        <v>33228</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="6" customFormat="1">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9">
+        <v>33013</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9">
+        <v>33091</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9">
+        <v>33573</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9">
+        <v>33664</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9">
+        <v>32690</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9">
+        <v>32893</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1">
+      <c r="M11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1">
+      <c r="M12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="6">
         <v>50</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="13" spans="1:15" s="6" customFormat="1">
+      <c r="M13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="6" customFormat="1">
+      <c r="M14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1">
+      <c r="M15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="6" customFormat="1">
+      <c r="M16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15" s="6" customFormat="1">
+      <c r="M17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" s="6" customFormat="1">
+      <c r="M18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="13:15" s="6" customFormat="1">
+      <c r="M19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="11">
-        <v>32874</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="8" customFormat="1">
-      <c r="A4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="11">
-        <v>33228</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="8" customFormat="1">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="11">
-        <v>33013</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="8">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="8" customFormat="1">
-      <c r="A6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="11">
-        <v>33091</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="8" customFormat="1">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="11">
-        <v>33573</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="8" customFormat="1">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="11">
-        <v>33664</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="8" customFormat="1">
-      <c r="A9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="11">
-        <v>32690</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="8" customFormat="1">
-      <c r="A10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="11">
-        <v>32893</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="8" customFormat="1">
-      <c r="M11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="8" customFormat="1">
-      <c r="M12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="8" customFormat="1">
-      <c r="M13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="8" customFormat="1">
-      <c r="M14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="8" customFormat="1">
-      <c r="M15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="8">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="8" customFormat="1">
-      <c r="M16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="8">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="13:15" s="8" customFormat="1">
-      <c r="M17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="13:15" s="8" customFormat="1">
-      <c r="M18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="13:15" s="8" customFormat="1">
-      <c r="M19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="8">
+      <c r="N19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="13:15" s="8" customFormat="1">
-      <c r="M20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="8">
+    <row r="20" spans="13:15" s="6" customFormat="1">
+      <c r="M20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="6">
         <v>98</v>
       </c>
     </row>
@@ -1541,37 +1590,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1581,26 +1603,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1614,19 +1636,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
